--- a/IcisNet Msges/phonograph_Template_Explanation.xlsx
+++ b/IcisNet Msges/phonograph_Template_Explanation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="CC515A" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="416">
   <si>
     <t>&lt;HEAHEA</t>
   </si>
@@ -1601,8 +1601,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2231,6 +2231,9 @@
       </c>
       <c r="B96">
         <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" hidden="1"/>
@@ -3503,9 +3506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
